--- a/biology/Histoire de la zoologie et de la botanique/John_Vaughan_Thompson/John_Vaughan_Thompson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Vaughan_Thompson/John_Vaughan_Thompson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Vaughan Thompson est un médecin et un naturaliste britannique, né le 19 novembre 1779 et mort le 21 janvier 1847 à Sydney.
 Ce chirurgien de marine originaire de Berwick-upon-Tweed séjourne dans les Caraïbes, à l’île Maurice et à Madagascar et voyage dans l'Atlantique et l’océan Indien. En 1816, il récolte des petits organismes pélagiques en utilisant un filet fait de mousseline. Basé à Cork, il s’intéresse dès lors à divers sujets comme la métamorphose chez les invertébrés marins et le phénomène de la bioluminescence. Il part en Australie en 1835 pour diriger l’hôpital de la prison de Sydney.
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Biographical Etymology of Marine Organism Names (BEMON)</t>
         </is>
